--- a/Delphi/data.xlsx
+++ b/Delphi/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hristos Birbou\PycharmProjects\legendary-rotary-phone\Delphi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C6037F-57FE-4D83-BF77-1DF635D95231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3097E20-5FE4-493C-A6A7-D0AF506431D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>fdfd</t>
-  </si>
-  <si>
-    <t>hgf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>er1</t>
+  </si>
+  <si>
+    <t>er2</t>
+  </si>
+  <si>
+    <t>er3</t>
+  </si>
+  <si>
+    <t>er4</t>
+  </si>
+  <si>
+    <t>er5</t>
+  </si>
+  <si>
+    <t>er6</t>
+  </si>
+  <si>
+    <t>er7</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>er8</t>
+  </si>
+  <si>
+    <t>er9</t>
+  </si>
+  <si>
+    <t>er10</t>
+  </si>
+  <si>
+    <t>er11</t>
+  </si>
+  <si>
+    <t>er12</t>
+  </si>
+  <si>
+    <t>er13</t>
+  </si>
+  <si>
+    <t>er14</t>
+  </si>
+  <si>
+    <t>er15</t>
+  </si>
+  <si>
+    <t>er16</t>
+  </si>
+  <si>
+    <t>er17</t>
+  </si>
+  <si>
+    <t>er18</t>
+  </si>
+  <si>
+    <t>er19</t>
+  </si>
+  <si>
+    <t>er20</t>
+  </si>
+  <si>
+    <t>er21</t>
+  </si>
+  <si>
+    <t>er22</t>
+  </si>
+  <si>
+    <t>er23</t>
+  </si>
+  <si>
+    <t>er24</t>
+  </si>
+  <si>
+    <t>er25</t>
+  </si>
+  <si>
+    <t>er26</t>
+  </si>
+  <si>
+    <t>er27</t>
+  </si>
+  <si>
+    <t>er28</t>
+  </si>
+  <si>
+    <t>er29</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,103 +489,1787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E3:G10"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>433</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>433</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>43</v>
-      </c>
-      <c r="F6">
-        <v>433</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>60.6666666666667</v>
-      </c>
-      <c r="F7">
-        <v>433</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <v>76.1666666666667</v>
-      </c>
-      <c r="F8">
-        <v>433</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <v>91.6666666666667</v>
-      </c>
-      <c r="F9">
-        <v>433</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <v>107.166666666667</v>
-      </c>
-      <c r="F10">
-        <v>433</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Delphi/data.xlsx
+++ b/Delphi/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hristos Birbou\PycharmProjects\legendary-rotary-phone\Delphi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718FC00-FC22-46A8-B503-751848215D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E057D-C5A2-4DAC-8EAB-A450D76BFE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33270" yWindow="3960" windowWidth="14895" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,19 +420,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -469,16 +469,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -501,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -535,19 +535,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
